--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/其他.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/其他.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,427 +528,183 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2528230.21418533</v>
+        <v>29628950.6320314</v>
       </c>
       <c r="C2" t="n">
-        <v>1323056.27404347</v>
+        <v>-1953049.62835742</v>
       </c>
       <c r="D2" t="n">
-        <v>-5967192.19610828</v>
+        <v>-1618897.73697429</v>
       </c>
       <c r="E2" t="n">
-        <v>3583911.06692639</v>
+        <v>22167219.9007065</v>
       </c>
       <c r="F2" t="n">
-        <v>-2340234.29543471</v>
+        <v>-13194304.5688205</v>
       </c>
       <c r="G2" t="n">
-        <v>-8769803.63888919</v>
+        <v>7249810.25208627</v>
       </c>
       <c r="H2" t="n">
-        <v>-1732832.17931681</v>
+        <v>17930312.5746863</v>
       </c>
       <c r="I2" t="n">
-        <v>7200962.90661389</v>
+        <v>14599947.3754533</v>
       </c>
       <c r="J2" t="n">
-        <v>10506743.5335165</v>
+        <v>40699006.5003426</v>
       </c>
       <c r="K2" t="n">
-        <v>-2050869.39424395</v>
+        <v>-13421896.7492307</v>
       </c>
       <c r="L2" t="n">
-        <v>-2069787.86525562</v>
+        <v>-15854536.1215935</v>
       </c>
       <c r="M2" t="n">
-        <v>5024504.27979897</v>
+        <v>6318294.94234348</v>
       </c>
       <c r="N2" t="n">
-        <v>-2990245.16143075</v>
+        <v>-13336363.1658289</v>
       </c>
       <c r="O2" t="n">
-        <v>1717257.06674802</v>
+        <v>-18437812.7065184</v>
       </c>
       <c r="P2" t="n">
-        <v>-2544739.46764728</v>
+        <v>-24324041.7127052</v>
       </c>
       <c r="Q2" t="n">
-        <v>-525475.6099999991</v>
+        <v>10802305.617264</v>
       </c>
       <c r="R2" t="n">
-        <v>-1559385.88513111</v>
+        <v>-13548124.2300532</v>
       </c>
       <c r="S2" t="n">
-        <v>3722360.77999581</v>
+        <v>25551080.089231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6008674</v>
+        <v>20528250.2717736</v>
       </c>
       <c r="C3" t="n">
-        <v>2089623</v>
+        <v>1444734.23996017</v>
       </c>
       <c r="D3" t="n">
-        <v>-12604704.1626482</v>
+        <v>344224.629176245</v>
       </c>
       <c r="E3" t="n">
-        <v>7141077.22496563</v>
+        <v>6223678.3861051</v>
       </c>
       <c r="F3" t="n">
-        <v>2587274</v>
+        <v>-2135195.08282455</v>
       </c>
       <c r="G3" t="n">
-        <v>-10089915.4924269</v>
+        <v>4945821.16523427</v>
       </c>
       <c r="H3" t="n">
-        <v>1711570.23978777</v>
+        <v>430788.810120862</v>
       </c>
       <c r="I3" t="n">
-        <v>-873540.63542356</v>
+        <v>110622.233786017</v>
       </c>
       <c r="J3" t="n">
-        <v>1316130.4778586</v>
+        <v>5499975.3052575</v>
       </c>
       <c r="K3" t="n">
-        <v>1545155</v>
+        <v>-235454.099334588</v>
       </c>
       <c r="L3" t="n">
-        <v>-2646875</v>
+        <v>-765214.1093131379</v>
       </c>
       <c r="M3" t="n">
-        <v>3762157.22260125</v>
+        <v>8131428.06288371</v>
       </c>
       <c r="N3" t="n">
-        <v>2091450.47945775</v>
+        <v>364889.932720909</v>
       </c>
       <c r="O3" t="n">
-        <v>4686325.741862</v>
+        <v>-2038441.2492371</v>
       </c>
       <c r="P3" t="n">
-        <v>2868827</v>
+        <v>-7250381.50754735</v>
       </c>
       <c r="Q3" t="n">
-        <v>-2199461.74706129</v>
+        <v>-545062.575529329</v>
       </c>
       <c r="R3" t="n">
-        <v>-757340.197412875</v>
+        <v>-2648997.48847908</v>
       </c>
       <c r="S3" t="n">
-        <v>5380920.95158594</v>
+        <v>8650833.61879391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-13097468.59347</v>
+        <v>-93467359.50157361</v>
       </c>
       <c r="C4" t="n">
-        <v>-2475321.50818308</v>
+        <v>-10698532.2954598</v>
       </c>
       <c r="D4" t="n">
-        <v>16710005.5978744</v>
+        <v>-32915627.9399537</v>
       </c>
       <c r="E4" t="n">
-        <v>10046257.0256306</v>
+        <v>8718580.947339499</v>
       </c>
       <c r="F4" t="n">
-        <v>2962330.12178558</v>
+        <v>-25071045.7072416</v>
       </c>
       <c r="G4" t="n">
-        <v>-22986831.9014849</v>
+        <v>98119148.6061136</v>
       </c>
       <c r="H4" t="n">
-        <v>-1097628.94092833</v>
+        <v>-29167500.3237315</v>
       </c>
       <c r="I4" t="n">
-        <v>-16350732.2959989</v>
+        <v>16212160.9525935</v>
       </c>
       <c r="J4" t="n">
-        <v>2790303.39972076</v>
+        <v>-24814781.7154543</v>
       </c>
       <c r="K4" t="n">
-        <v>-5651967.10112822</v>
+        <v>-7972701.90042634</v>
       </c>
       <c r="L4" t="n">
-        <v>4867472.99511681</v>
+        <v>-27368772.2491772</v>
       </c>
       <c r="M4" t="n">
-        <v>8897677.844920671</v>
+        <v>-9799685.534099551</v>
       </c>
       <c r="N4" t="n">
-        <v>-9432391.882507451</v>
+        <v>3224568.67962273</v>
       </c>
       <c r="O4" t="n">
-        <v>-3426244.12230786</v>
+        <v>-4828105.16254625</v>
       </c>
       <c r="P4" t="n">
-        <v>-9305019.69671708</v>
+        <v>-14808674.8574386</v>
       </c>
       <c r="Q4" t="n">
-        <v>-5714909.90766689</v>
+        <v>-948359.02794195</v>
       </c>
       <c r="R4" t="n">
-        <v>7097676.12896191</v>
+        <v>-18868039.7085309</v>
       </c>
       <c r="S4" t="n">
-        <v>9971855.649441989</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>18604163.2118835</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-662857.666535061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>656213.8086625329</v>
-      </c>
-      <c r="E5" t="n">
-        <v>26717057.8203617</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-5449043.86369085</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7557010.89695163</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1429196.18557169</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7278079.65545224</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9526278.044846321</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-7171878.59725241</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-12612423.0132686</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-525974.3735102559</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3128631.83465234</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-2903905.28298029</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-25832847.03316</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5526379.16566214</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-5661331.00076306</v>
-      </c>
-      <c r="S5" t="n">
-        <v>17605576.1859519</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>29628950.6320314</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-1953049.62835742</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-1618897.73697429</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22167219.9007065</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-13194304.5688205</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7249810.25208627</v>
-      </c>
-      <c r="H6" t="n">
-        <v>17930312.5746863</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14599947.3754533</v>
-      </c>
-      <c r="J6" t="n">
-        <v>40699006.5003426</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-13421896.7492307</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-15854536.1215935</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6318294.94234348</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-13336363.1658289</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-18437812.7065184</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-24324041.7127052</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>10802305.617264</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-13548124.2300532</v>
-      </c>
-      <c r="S6" t="n">
-        <v>25551080.089231</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20528250.2717736</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1444734.23996017</v>
-      </c>
-      <c r="D7" t="n">
-        <v>344224.629176245</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6223678.3861051</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-2135195.08282455</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4945821.16523427</v>
-      </c>
-      <c r="H7" t="n">
-        <v>430788.810120862</v>
-      </c>
-      <c r="I7" t="n">
-        <v>110622.233786017</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5499975.3052575</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-235454.099334588</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-765214.1093131379</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8131428.06288371</v>
-      </c>
-      <c r="N7" t="n">
-        <v>364889.932720909</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-2038441.2492371</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-7250381.50754735</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-545062.575529329</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-2648997.48847908</v>
-      </c>
-      <c r="S7" t="n">
-        <v>8650833.61879391</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-93467359.50157361</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-10698532.2954598</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-32915627.9399537</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8718580.947339499</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-25071045.7072416</v>
-      </c>
-      <c r="G8" t="n">
-        <v>98119148.6061136</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-29167500.3237315</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16212160.9525935</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-24814781.7154543</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-7972701.90042634</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-27368772.2491772</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-9799685.534099551</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3224568.67962273</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-4828105.16254625</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-14808674.8574386</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-948359.02794195</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-18868039.7085309</v>
-      </c>
-      <c r="S8" t="n">
         <v>-12479992.2652535</v>
       </c>
     </row>
